--- a/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/55_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/55_11R22.xlsx
@@ -668,97 +668,97 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.07144874099046693</v>
+        <v>0.1999316122606811</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.2045599853377429</v>
+        <v>0.1038923171782563</v>
       </c>
       <c r="G2">
-        <v>0.02714974444000464</v>
+        <v>0.0288775858811481</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.003283156312093337</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0290270248939346</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.08252462820800011</v>
+        <v>0.06331422504153093</v>
       </c>
       <c r="M2">
-        <v>0.02454809799649807</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.05711935729428735</v>
+        <v>0.1002615268294124</v>
       </c>
       <c r="O2">
-        <v>0.1067544252710419</v>
+        <v>0.06725321691988492</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.004003728841400924</v>
       </c>
       <c r="Q2">
-        <v>0.01232230400621911</v>
+        <v>0.06963223952979385</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08331593317808354</v>
+        <v>0.08435478409610062</v>
       </c>
       <c r="T2">
-        <v>0.0102304952754119</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.004057364582863604</v>
+        <v>0.00525504114395989</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.007331763992341479</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.01761187043567807</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.01538450470174391</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.04646341689338541</v>
+        <v>0.09222229625341472</v>
       </c>
       <c r="AA2">
-        <v>0.04432468817350008</v>
+        <v>0.05417514655263164</v>
       </c>
       <c r="AB2">
-        <v>0.01343870815312597</v>
+        <v>0.002825004504047925</v>
       </c>
       <c r="AC2">
-        <v>0.02164078342336163</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.05801334519570546</v>
+        <v>0.01660424409236048</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.09184475420885321</v>
+        <v>0.05382444335678144</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>0.009961292076737949</v>
       </c>
       <c r="AH2">
-        <v>0.01121620247751379</v>
+        <v>0</v>
       </c>
       <c r="AI2">
         <v>0</v>
@@ -775,19 +775,19 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.1834956796447767</v>
       </c>
       <c r="E3">
-        <v>0.1418159399475818</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.09872220257134746</v>
+        <v>0.1013653998966378</v>
       </c>
       <c r="G3">
-        <v>0.2069442975351374</v>
+        <v>0.07083897521259609</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.01246315626335779</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -796,76 +796,76 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.01113447421919346</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.01073011707211665</v>
+        <v>0.03590129223898606</v>
       </c>
       <c r="M3">
-        <v>0.07252642538067451</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.07946374570585092</v>
       </c>
       <c r="O3">
-        <v>0.1245353576273848</v>
+        <v>0.08759969714429296</v>
       </c>
       <c r="P3">
-        <v>0.001381621386913199</v>
+        <v>0.005556415247554228</v>
       </c>
       <c r="Q3">
-        <v>0.01928232319091698</v>
+        <v>0.0398144334210401</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.04127125939661323</v>
+        <v>0.06272439429850837</v>
       </c>
       <c r="T3">
-        <v>0.03915883593317909</v>
+        <v>0.0052544177808352</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>0.004298744713910604</v>
       </c>
       <c r="V3">
         <v>0</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.02901107276306342</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>0.00409218261722992</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>0.005460394285871091</v>
       </c>
       <c r="Z3">
-        <v>0.01652144624684183</v>
+        <v>0.07407572055276264</v>
       </c>
       <c r="AA3">
-        <v>0.05421178848454478</v>
+        <v>0.08633621711305126</v>
       </c>
       <c r="AB3">
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.04864231835471439</v>
+        <v>0.01148674111189283</v>
       </c>
       <c r="AD3">
-        <v>0.01065949108642214</v>
+        <v>0.01521390695719346</v>
       </c>
       <c r="AE3">
-        <v>0.01674694514216672</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.05034247547270182</v>
+        <v>0.05886491687761067</v>
       </c>
       <c r="AG3">
-        <v>0.03292331943692482</v>
+        <v>0.02668249615297776</v>
       </c>
       <c r="AH3">
-        <v>0.002449361514624829</v>
+        <v>0</v>
       </c>
       <c r="AI3">
         <v>0</v>
@@ -882,16 +882,16 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.06077831184018054</v>
+        <v>0.1957726136178842</v>
       </c>
       <c r="E4">
-        <v>0.01927921735545669</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.1972395250967732</v>
+        <v>0.1853713854673107</v>
       </c>
       <c r="G4">
-        <v>0.08272612470805868</v>
+        <v>0.02681750665809193</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -903,76 +903,76 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.005733612551204085</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.06122456209788915</v>
+        <v>0.04763702556548758</v>
       </c>
       <c r="M4">
-        <v>0.03477474417949812</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.02905534363285065</v>
+        <v>0.09583855811056877</v>
       </c>
       <c r="O4">
-        <v>0.1208130509568491</v>
+        <v>0.0419315603314661</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.0136694507451848</v>
+        <v>0.02758427642173727</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.07051055616702104</v>
+        <v>0.08417314461451683</v>
       </c>
       <c r="T4">
-        <v>0.03146760476230591</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.01363870649944202</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>0.003984348547693557</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>0.005588194314427117</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>0.01640584255277236</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.03992548620240981</v>
+        <v>0.08914560740918308</v>
       </c>
       <c r="AA4">
-        <v>0.04898926026881485</v>
+        <v>0.04077308110825361</v>
       </c>
       <c r="AB4">
-        <v>0.00404788479676687</v>
+        <v>0.02269628668325257</v>
       </c>
       <c r="AC4">
-        <v>0.03286961180048691</v>
+        <v>0.004080368809674511</v>
       </c>
       <c r="AD4">
-        <v>0.04240514546775469</v>
+        <v>0.03421416199164746</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.09086017270347009</v>
+        <v>0.06291112390344816</v>
       </c>
       <c r="AG4">
-        <v>0.003374698307841019</v>
+        <v>0.001436207393141966</v>
       </c>
       <c r="AH4">
-        <v>0.01025563635918384</v>
+        <v>0</v>
       </c>
       <c r="AI4">
         <v>0</v>
@@ -989,19 +989,19 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.004323856466696732</v>
+        <v>0.07743927575422418</v>
       </c>
       <c r="E5">
-        <v>0.1070975820873751</v>
+        <v>0.05849688453633226</v>
       </c>
       <c r="F5">
-        <v>0.04225046241490647</v>
+        <v>0.07308787351819741</v>
       </c>
       <c r="G5">
-        <v>0.1848259689673723</v>
+        <v>0.1578767916194171</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.005557999452442799</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1010,73 +1010,73 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.0122290404142231</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.0008872197909619757</v>
       </c>
       <c r="M5">
-        <v>0.1137297204046612</v>
+        <v>0.02775088405382907</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.01465363126835</v>
       </c>
       <c r="O5">
-        <v>0.1345826310147609</v>
+        <v>0.1363406612204721</v>
       </c>
       <c r="P5">
-        <v>0.02460036480254645</v>
+        <v>0.01083851842707292</v>
       </c>
       <c r="Q5">
-        <v>0.01531228139357949</v>
+        <v>0.02010066159845228</v>
       </c>
       <c r="R5">
-        <v>0.01437320318167921</v>
+        <v>0.006855177940440701</v>
       </c>
       <c r="S5">
-        <v>0.003256665198294696</v>
+        <v>0.02893563080376973</v>
       </c>
       <c r="T5">
-        <v>0.1015049770660306</v>
+        <v>0.03802782309839475</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5">
-        <v>0.001219062927619696</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.001148391224071384</v>
+        <v>0.03700291170071107</v>
       </c>
       <c r="X5">
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>0.02688639977265927</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>0.0146108576454625</v>
       </c>
       <c r="AA5">
-        <v>0.08992417786370448</v>
+        <v>0.128946610214697</v>
       </c>
       <c r="AB5">
         <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.04175702399693434</v>
+        <v>0.03842317715414892</v>
       </c>
       <c r="AD5">
         <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.02991225330905749</v>
+        <v>0.01817487675624565</v>
       </c>
       <c r="AF5">
-        <v>0.01532525686289548</v>
+        <v>0.02015001577870707</v>
       </c>
       <c r="AG5">
-        <v>0.06262708040359073</v>
+        <v>0.05895611789501115</v>
       </c>
       <c r="AH5">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1141388265656695</v>
+        <v>0.2123018388286744</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.2419365094557567</v>
+        <v>0.255266061728484</v>
       </c>
       <c r="G6">
-        <v>0.0468918852552695</v>
+        <v>0.02915759188429462</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1114,79 +1114,79 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0008848321223379341</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.07650489268839446</v>
+        <v>0.02122820951320909</v>
       </c>
       <c r="M6">
-        <v>0.01491419043933172</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.05922423607757575</v>
+        <v>0.0603275137886581</v>
       </c>
       <c r="O6">
-        <v>0.08252803091264192</v>
+        <v>0.05520945766510201</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.01473596099471104</v>
+        <v>0.01313283773605224</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0.07131397741540728</v>
+        <v>0.07268574109521032</v>
       </c>
       <c r="T6">
-        <v>0.00232258765085009</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.002757215123200046</v>
+        <v>0.008300891899903459</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>0.00207217596213052</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>0.007424265378186816</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>0.009819785055328134</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.04965800083109521</v>
+        <v>0.07691410056568945</v>
       </c>
       <c r="AA6">
-        <v>0.01320297257215049</v>
+        <v>0.0446541353857964</v>
       </c>
       <c r="AB6">
-        <v>0.02669363352973991</v>
+        <v>0.01588241376615284</v>
       </c>
       <c r="AC6">
-        <v>0.001371318226775294</v>
+        <v>0.01189420139298094</v>
       </c>
       <c r="AD6">
-        <v>0.06446823592387661</v>
+        <v>0.03788209547579993</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.1006312446531708</v>
+        <v>0.06372636957823891</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>0.002120313300107783</v>
       </c>
       <c r="AH6">
-        <v>0.01582144956204586</v>
+        <v>0</v>
       </c>
       <c r="AI6">
         <v>0</v>
@@ -1323,100 +1323,100 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.07144874099046693</v>
+        <v>0.1999316122606811</v>
       </c>
       <c r="E2">
-        <v>0.07144874099046693</v>
+        <v>0.1999316122606811</v>
       </c>
       <c r="F2">
-        <v>0.2760087263282099</v>
+        <v>0.3038239294389374</v>
       </c>
       <c r="G2">
-        <v>0.3031584707682145</v>
+        <v>0.3327015153200855</v>
       </c>
       <c r="H2">
-        <v>0.3031584707682145</v>
+        <v>0.3359846716321788</v>
       </c>
       <c r="I2">
-        <v>0.3031584707682145</v>
+        <v>0.3359846716321788</v>
       </c>
       <c r="J2">
-        <v>0.3321854956621491</v>
+        <v>0.3359846716321788</v>
       </c>
       <c r="K2">
-        <v>0.3321854956621491</v>
+        <v>0.3359846716321788</v>
       </c>
       <c r="L2">
-        <v>0.4147101238701492</v>
+        <v>0.3992988966737098</v>
       </c>
       <c r="M2">
-        <v>0.4392582218666473</v>
+        <v>0.3992988966737098</v>
       </c>
       <c r="N2">
-        <v>0.4963775791609347</v>
+        <v>0.4995604235031221</v>
       </c>
       <c r="O2">
-        <v>0.6031320044319766</v>
+        <v>0.5668136404230071</v>
       </c>
       <c r="P2">
-        <v>0.6031320044319766</v>
+        <v>0.570817369264408</v>
       </c>
       <c r="Q2">
-        <v>0.6154543084381957</v>
+        <v>0.6404496087942018</v>
       </c>
       <c r="R2">
-        <v>0.6154543084381957</v>
+        <v>0.6404496087942018</v>
       </c>
       <c r="S2">
-        <v>0.6987702416162792</v>
+        <v>0.7248043928903024</v>
       </c>
       <c r="T2">
-        <v>0.7090007368916911</v>
+        <v>0.7248043928903024</v>
       </c>
       <c r="U2">
-        <v>0.7130581014745547</v>
+        <v>0.7300594340342623</v>
       </c>
       <c r="V2">
-        <v>0.7130581014745547</v>
+        <v>0.7373911980266038</v>
       </c>
       <c r="W2">
-        <v>0.7130581014745547</v>
+        <v>0.7550030684622818</v>
       </c>
       <c r="X2">
-        <v>0.7130581014745547</v>
+        <v>0.7703875731640257</v>
       </c>
       <c r="Y2">
-        <v>0.7130581014745547</v>
+        <v>0.7703875731640257</v>
       </c>
       <c r="Z2">
-        <v>0.7595215183679401</v>
+        <v>0.8626098694174404</v>
       </c>
       <c r="AA2">
-        <v>0.8038462065414402</v>
+        <v>0.9167850159700721</v>
       </c>
       <c r="AB2">
-        <v>0.8172849146945662</v>
+        <v>0.91961002047412</v>
       </c>
       <c r="AC2">
-        <v>0.8389256981179278</v>
+        <v>0.91961002047412</v>
       </c>
       <c r="AD2">
-        <v>0.8969390433136333</v>
+        <v>0.9362142645664805</v>
       </c>
       <c r="AE2">
-        <v>0.8969390433136333</v>
+        <v>0.9362142645664805</v>
       </c>
       <c r="AF2">
-        <v>0.9887837975224865</v>
+        <v>0.990038707923262</v>
       </c>
       <c r="AG2">
-        <v>0.9887837975224865</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -1430,100 +1430,100 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.1834956796447767</v>
       </c>
       <c r="E3">
-        <v>0.1418159399475818</v>
+        <v>0.1834956796447767</v>
       </c>
       <c r="F3">
-        <v>0.2405381425189292</v>
+        <v>0.2848610795414145</v>
       </c>
       <c r="G3">
-        <v>0.4474824400540667</v>
+        <v>0.3557000547540106</v>
       </c>
       <c r="H3">
-        <v>0.4474824400540667</v>
+        <v>0.3681632110173684</v>
       </c>
       <c r="I3">
-        <v>0.4474824400540667</v>
+        <v>0.3681632110173684</v>
       </c>
       <c r="J3">
-        <v>0.4474824400540667</v>
+        <v>0.3681632110173684</v>
       </c>
       <c r="K3">
-        <v>0.4586169142732601</v>
+        <v>0.3681632110173684</v>
       </c>
       <c r="L3">
-        <v>0.4693470313453768</v>
+        <v>0.4040645032563545</v>
       </c>
       <c r="M3">
-        <v>0.5418734567260513</v>
+        <v>0.4040645032563545</v>
       </c>
       <c r="N3">
-        <v>0.5418734567260513</v>
+        <v>0.4835282489622054</v>
       </c>
       <c r="O3">
-        <v>0.666408814353436</v>
+        <v>0.5711279461064983</v>
       </c>
       <c r="P3">
-        <v>0.6677904357403492</v>
+        <v>0.5766843613540525</v>
       </c>
       <c r="Q3">
-        <v>0.6870727589312662</v>
+        <v>0.6164987947750926</v>
       </c>
       <c r="R3">
-        <v>0.6870727589312662</v>
+        <v>0.6164987947750926</v>
       </c>
       <c r="S3">
-        <v>0.7283440183278794</v>
+        <v>0.679223189073601</v>
       </c>
       <c r="T3">
-        <v>0.7675028542610585</v>
+        <v>0.6844776068544363</v>
       </c>
       <c r="U3">
-        <v>0.7675028542610585</v>
+        <v>0.6887763515683468</v>
       </c>
       <c r="V3">
-        <v>0.7675028542610585</v>
+        <v>0.6887763515683468</v>
       </c>
       <c r="W3">
-        <v>0.7675028542610585</v>
+        <v>0.7177874243314102</v>
       </c>
       <c r="X3">
-        <v>0.7675028542610585</v>
+        <v>0.7218796069486401</v>
       </c>
       <c r="Y3">
-        <v>0.7675028542610585</v>
+        <v>0.7273400012345111</v>
       </c>
       <c r="Z3">
-        <v>0.7840243005079003</v>
+        <v>0.8014157217872738</v>
       </c>
       <c r="AA3">
-        <v>0.8382360889924451</v>
+        <v>0.8877519389003251</v>
       </c>
       <c r="AB3">
-        <v>0.8382360889924451</v>
+        <v>0.8877519389003251</v>
       </c>
       <c r="AC3">
-        <v>0.8868784073471594</v>
+        <v>0.899238680012218</v>
       </c>
       <c r="AD3">
-        <v>0.8975378984335816</v>
+        <v>0.9144525869694115</v>
       </c>
       <c r="AE3">
-        <v>0.9142848435757482</v>
+        <v>0.9144525869694115</v>
       </c>
       <c r="AF3">
-        <v>0.96462731904845</v>
+        <v>0.9733175038470221</v>
       </c>
       <c r="AG3">
-        <v>0.9975506384853748</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH3">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI3">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -1537,100 +1537,100 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.06077831184018054</v>
+        <v>0.1957726136178842</v>
       </c>
       <c r="E4">
-        <v>0.08005752919563724</v>
+        <v>0.1957726136178842</v>
       </c>
       <c r="F4">
-        <v>0.2772970542924105</v>
+        <v>0.3811439990851949</v>
       </c>
       <c r="G4">
-        <v>0.3600231790004692</v>
+        <v>0.4079615057432868</v>
       </c>
       <c r="H4">
-        <v>0.3600231790004692</v>
+        <v>0.4079615057432868</v>
       </c>
       <c r="I4">
-        <v>0.3600231790004692</v>
+        <v>0.4079615057432868</v>
       </c>
       <c r="J4">
-        <v>0.3600231790004692</v>
+        <v>0.4079615057432868</v>
       </c>
       <c r="K4">
-        <v>0.3657567915516732</v>
+        <v>0.4079615057432868</v>
       </c>
       <c r="L4">
-        <v>0.4269813536495624</v>
+        <v>0.4555985313087744</v>
       </c>
       <c r="M4">
-        <v>0.4617560978290605</v>
+        <v>0.4555985313087744</v>
       </c>
       <c r="N4">
-        <v>0.4908114414619111</v>
+        <v>0.5514370894193432</v>
       </c>
       <c r="O4">
-        <v>0.6116244924187603</v>
+        <v>0.5933686497508093</v>
       </c>
       <c r="P4">
-        <v>0.6116244924187603</v>
+        <v>0.5933686497508093</v>
       </c>
       <c r="Q4">
-        <v>0.625293943163945</v>
+        <v>0.6209529261725465</v>
       </c>
       <c r="R4">
-        <v>0.625293943163945</v>
+        <v>0.6209529261725465</v>
       </c>
       <c r="S4">
-        <v>0.6958044993309661</v>
+        <v>0.7051260707870634</v>
       </c>
       <c r="T4">
-        <v>0.727272104093272</v>
+        <v>0.7051260707870634</v>
       </c>
       <c r="U4">
-        <v>0.727272104093272</v>
+        <v>0.7187647772865053</v>
       </c>
       <c r="V4">
-        <v>0.727272104093272</v>
+        <v>0.7227491258341989</v>
       </c>
       <c r="W4">
-        <v>0.727272104093272</v>
+        <v>0.7283373201486261</v>
       </c>
       <c r="X4">
-        <v>0.727272104093272</v>
+        <v>0.7447431627013984</v>
       </c>
       <c r="Y4">
-        <v>0.727272104093272</v>
+        <v>0.7447431627013984</v>
       </c>
       <c r="Z4">
-        <v>0.7671975902956818</v>
+        <v>0.8338887701105815</v>
       </c>
       <c r="AA4">
-        <v>0.8161868505644967</v>
+        <v>0.8746618512188351</v>
       </c>
       <c r="AB4">
-        <v>0.8202347353612636</v>
+        <v>0.8973581379020876</v>
       </c>
       <c r="AC4">
-        <v>0.8531043471617504</v>
+        <v>0.9014385067117622</v>
       </c>
       <c r="AD4">
-        <v>0.8955094926295051</v>
+        <v>0.9356526687034097</v>
       </c>
       <c r="AE4">
-        <v>0.8955094926295051</v>
+        <v>0.9356526687034097</v>
       </c>
       <c r="AF4">
-        <v>0.9863696653329752</v>
+        <v>0.9985637926068578</v>
       </c>
       <c r="AG4">
-        <v>0.9897443636408162</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AH4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -1644,100 +1644,100 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.004323856466696732</v>
+        <v>0.07743927575422418</v>
       </c>
       <c r="E5">
-        <v>0.1114214385540718</v>
+        <v>0.1359361602905564</v>
       </c>
       <c r="F5">
-        <v>0.1536719009689783</v>
+        <v>0.2090240338087538</v>
       </c>
       <c r="G5">
-        <v>0.3384978699363506</v>
+        <v>0.3669008254281709</v>
       </c>
       <c r="H5">
-        <v>0.3384978699363506</v>
+        <v>0.3724588248806137</v>
       </c>
       <c r="I5">
-        <v>0.3384978699363506</v>
+        <v>0.3724588248806137</v>
       </c>
       <c r="J5">
-        <v>0.3384978699363506</v>
+        <v>0.3724588248806137</v>
       </c>
       <c r="K5">
-        <v>0.3507269103505737</v>
+        <v>0.3724588248806137</v>
       </c>
       <c r="L5">
-        <v>0.3507269103505737</v>
+        <v>0.3733460446715757</v>
       </c>
       <c r="M5">
-        <v>0.4644566307552349</v>
+        <v>0.4010969287254048</v>
       </c>
       <c r="N5">
-        <v>0.4644566307552349</v>
+        <v>0.4157505599937548</v>
       </c>
       <c r="O5">
-        <v>0.5990392617699958</v>
+        <v>0.5520912212142268</v>
       </c>
       <c r="P5">
-        <v>0.6236396265725422</v>
+        <v>0.5629297396412998</v>
       </c>
       <c r="Q5">
-        <v>0.6389519079661218</v>
+        <v>0.583030401239752</v>
       </c>
       <c r="R5">
-        <v>0.653325111147801</v>
+        <v>0.5898855791801927</v>
       </c>
       <c r="S5">
-        <v>0.6565817763460957</v>
+        <v>0.6188212099839624</v>
       </c>
       <c r="T5">
-        <v>0.7580867534121263</v>
+        <v>0.6568490330823571</v>
       </c>
       <c r="U5">
-        <v>0.7580867534121263</v>
+        <v>0.6568490330823571</v>
       </c>
       <c r="V5">
-        <v>0.759305816339746</v>
+        <v>0.6568490330823571</v>
       </c>
       <c r="W5">
-        <v>0.7604542075638174</v>
+        <v>0.6938519447830681</v>
       </c>
       <c r="X5">
-        <v>0.7604542075638174</v>
+        <v>0.6938519447830681</v>
       </c>
       <c r="Y5">
-        <v>0.7604542075638174</v>
+        <v>0.7207383445557274</v>
       </c>
       <c r="Z5">
-        <v>0.7604542075638174</v>
+        <v>0.7353492022011899</v>
       </c>
       <c r="AA5">
-        <v>0.8503783854275219</v>
+        <v>0.8642958124158869</v>
       </c>
       <c r="AB5">
-        <v>0.8503783854275219</v>
+        <v>0.8642958124158869</v>
       </c>
       <c r="AC5">
-        <v>0.8921354094244562</v>
+        <v>0.9027189895700358</v>
       </c>
       <c r="AD5">
-        <v>0.8921354094244562</v>
+        <v>0.9027189895700358</v>
       </c>
       <c r="AE5">
-        <v>0.9220476627335137</v>
+        <v>0.9208938663262815</v>
       </c>
       <c r="AF5">
-        <v>0.9373729195964091</v>
+        <v>0.9410438821049886</v>
       </c>
       <c r="AG5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AH5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AI5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -1751,94 +1751,94 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1141388265656695</v>
+        <v>0.2123018388286744</v>
       </c>
       <c r="E6">
-        <v>0.1141388265656695</v>
+        <v>0.2123018388286744</v>
       </c>
       <c r="F6">
-        <v>0.3560753360214263</v>
+        <v>0.4675679005571585</v>
       </c>
       <c r="G6">
-        <v>0.4029672212766958</v>
+        <v>0.4967254924414531</v>
       </c>
       <c r="H6">
-        <v>0.4029672212766958</v>
+        <v>0.4967254924414531</v>
       </c>
       <c r="I6">
-        <v>0.4029672212766958</v>
+        <v>0.4967254924414531</v>
       </c>
       <c r="J6">
-        <v>0.4038520533990337</v>
+        <v>0.4967254924414531</v>
       </c>
       <c r="K6">
-        <v>0.4038520533990337</v>
+        <v>0.4967254924414531</v>
       </c>
       <c r="L6">
-        <v>0.4803569460874281</v>
+        <v>0.5179537019546622</v>
       </c>
       <c r="M6">
-        <v>0.4952711365267599</v>
+        <v>0.5179537019546622</v>
       </c>
       <c r="N6">
-        <v>0.5544953726043356</v>
+        <v>0.5782812157433203</v>
       </c>
       <c r="O6">
-        <v>0.6370234035169775</v>
+        <v>0.6334906734084222</v>
       </c>
       <c r="P6">
-        <v>0.6370234035169775</v>
+        <v>0.6334906734084222</v>
       </c>
       <c r="Q6">
-        <v>0.6517593645116886</v>
+        <v>0.6466235111444745</v>
       </c>
       <c r="R6">
-        <v>0.6517593645116886</v>
+        <v>0.6466235111444745</v>
       </c>
       <c r="S6">
-        <v>0.7230733419270958</v>
+        <v>0.7193092522396848</v>
       </c>
       <c r="T6">
-        <v>0.725395929577946</v>
+        <v>0.7193092522396848</v>
       </c>
       <c r="U6">
-        <v>0.728153144701146</v>
+        <v>0.7276101441395882</v>
       </c>
       <c r="V6">
-        <v>0.728153144701146</v>
+        <v>0.7296823201017187</v>
       </c>
       <c r="W6">
-        <v>0.728153144701146</v>
+        <v>0.7371065854799056</v>
       </c>
       <c r="X6">
-        <v>0.728153144701146</v>
+        <v>0.7469263705352337</v>
       </c>
       <c r="Y6">
-        <v>0.728153144701146</v>
+        <v>0.7469263705352337</v>
       </c>
       <c r="Z6">
-        <v>0.7778111455322412</v>
+        <v>0.8238404711009232</v>
       </c>
       <c r="AA6">
-        <v>0.7910141181043917</v>
+        <v>0.8684946064867196</v>
       </c>
       <c r="AB6">
-        <v>0.8177077516341316</v>
+        <v>0.8843770202528725</v>
       </c>
       <c r="AC6">
-        <v>0.8190790698609068</v>
+        <v>0.8962712216458534</v>
       </c>
       <c r="AD6">
-        <v>0.8835473057847835</v>
+        <v>0.9341533171216533</v>
       </c>
       <c r="AE6">
-        <v>0.8835473057847835</v>
+        <v>0.9341533171216533</v>
       </c>
       <c r="AF6">
-        <v>0.9841785504379543</v>
+        <v>0.9978796866998922</v>
       </c>
       <c r="AG6">
-        <v>0.9841785504379543</v>
+        <v>1</v>
       </c>
       <c r="AH6">
         <v>1</v>
@@ -1918,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6031320044319766</v>
+        <v>0.5668136404230071</v>
       </c>
       <c r="G2">
         <v>13</v>
@@ -1950,19 +1950,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5418734567260513</v>
+        <v>0.5711279461064983</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H3">
         <v>55</v>
@@ -1994,16 +1994,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.6116244924187603</v>
+        <v>0.5514370894193432</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H4">
         <v>55</v>
@@ -2032,7 +2032,7 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>14</v>
@@ -2041,10 +2041,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5990392617699958</v>
+        <v>0.5520912212142268</v>
       </c>
       <c r="G5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H5">
         <v>55</v>
@@ -2076,16 +2076,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5544953726043356</v>
+        <v>0.5179537019546622</v>
       </c>
       <c r="G6">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H6">
         <v>55</v>
@@ -2171,16 +2171,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7090007368916911</v>
+        <v>0.7248043928903024</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H2">
         <v>55</v>
@@ -2209,19 +2209,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7283440183278794</v>
+        <v>0.7177874243314102</v>
       </c>
       <c r="G3">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H3">
         <v>55</v>
@@ -2253,16 +2253,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.727272104093272</v>
+        <v>0.7051260707870634</v>
       </c>
       <c r="G4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H4">
         <v>55</v>
@@ -2291,19 +2291,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7580867534121263</v>
+        <v>0.7207383445557274</v>
       </c>
       <c r="G5">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H5">
         <v>55</v>
@@ -2341,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7230733419270958</v>
+        <v>0.7193092522396848</v>
       </c>
       <c r="G6">
         <v>17</v>
@@ -2430,16 +2430,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8038462065414402</v>
+        <v>0.8626098694174404</v>
       </c>
       <c r="G2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H2">
         <v>55</v>
@@ -2468,16 +2468,16 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8382360889924451</v>
+        <v>0.8014157217872738</v>
       </c>
       <c r="G3">
         <v>24</v>
@@ -2512,16 +2512,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8161868505644967</v>
+        <v>0.8338887701105815</v>
       </c>
       <c r="G4">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H4">
         <v>55</v>
@@ -2550,7 +2550,7 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>26</v>
@@ -2559,10 +2559,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8503783854275219</v>
+        <v>0.8642958124158869</v>
       </c>
       <c r="G5">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H5">
         <v>55</v>
@@ -2594,16 +2594,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8177077516341316</v>
+        <v>0.8238404711009232</v>
       </c>
       <c r="G6">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H6">
         <v>55</v>
@@ -2689,16 +2689,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9887837975224865</v>
+        <v>0.9167850159700721</v>
       </c>
       <c r="G2">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H2">
         <v>55</v>
@@ -2727,16 +2727,16 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9142848435757482</v>
+        <v>0.9144525869694115</v>
       </c>
       <c r="G3">
         <v>28</v>
@@ -2771,16 +2771,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9863696653329752</v>
+        <v>0.9014385067117622</v>
       </c>
       <c r="G4">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H4">
         <v>55</v>
@@ -2809,19 +2809,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9220476627335137</v>
+        <v>0.9027189895700358</v>
       </c>
       <c r="G5">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H5">
         <v>55</v>
@@ -2853,16 +2853,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9841785504379543</v>
+        <v>0.9341533171216533</v>
       </c>
       <c r="G6">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6">
         <v>55</v>
